--- a/Documentation/Sprint 2 Backlog.xlsx
+++ b/Documentation/Sprint 2 Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="11460" windowHeight="7950"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="11460" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Duration (Hours)</t>
   </si>
@@ -54,39 +54,15 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>2. Sorting Shares</t>
-  </si>
-  <si>
-    <t>Get all Share Names displaying properly</t>
-  </si>
-  <si>
-    <t>Create Hashmap to store Share Names and Overall Value</t>
-  </si>
-  <si>
-    <t>Become familiar with the code</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>Get application running on physical Android Device/Emulator</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
     <t>Test code on physical Android Device</t>
   </si>
   <si>
-    <t>Connect to Yahoo! Finance API</t>
-  </si>
-  <si>
-    <t>Develop test data</t>
-  </si>
-  <si>
-    <t>Perform test from story card</t>
-  </si>
-  <si>
     <t>Members</t>
   </si>
   <si>
@@ -105,12 +81,6 @@
     <t>Hamish</t>
   </si>
   <si>
-    <t>Create TreeMap to sort shares by highest value</t>
-  </si>
-  <si>
-    <t>Create NavMap to sort values into descending order</t>
-  </si>
-  <si>
     <t>Research graph api's for java android</t>
   </si>
   <si>
@@ -126,39 +96,12 @@
     <t>Code the feature</t>
   </si>
   <si>
-    <t>Mark, Victor</t>
-  </si>
-  <si>
-    <t>Hamish, Adam</t>
-  </si>
-  <si>
-    <t>Thomas, Peter</t>
-  </si>
-  <si>
-    <t>Victor, Hamish</t>
-  </si>
-  <si>
-    <t>Victor, Adam, Thomas</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
     <t>Thomas, Mark</t>
   </si>
   <si>
-    <t>Thomas, Adam</t>
-  </si>
-  <si>
     <t>Member(s)</t>
   </si>
   <si>
-    <t>Increase readability</t>
-  </si>
-  <si>
-    <t>Victor, Mark</t>
-  </si>
-  <si>
     <t xml:space="preserve">3. Updates Views </t>
   </si>
   <si>
@@ -169,13 +112,31 @@
   </si>
   <si>
     <t>Sprint 2: Task Description</t>
+  </si>
+  <si>
+    <t>Learn how to use new library</t>
+  </si>
+  <si>
+    <t>Make text smaller to fit on screen</t>
+  </si>
+  <si>
+    <t>Correct numbers for accurate shares</t>
+  </si>
+  <si>
+    <t>Mark, Hamish</t>
+  </si>
+  <si>
+    <t>Thomas, Victor</t>
+  </si>
+  <si>
+    <t>Adam, Peter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +148,27 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,24 +189,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -233,6 +197,21 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -370,8 +349,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -387,13 +369,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -408,21 +390,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -441,9 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,8 +426,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -545,7 +530,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -580,7 +564,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -756,44 +739,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
-    <col min="5" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="13" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="13" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="9"/>
+    <row r="1" spans="1:13" ht="21">
+      <c r="A1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -803,18 +786,18 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="J2"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:13" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1</v>
@@ -834,24 +817,24 @@
       <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+    <row r="4" spans="1:13">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -862,22 +845,20 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="I5" s="16"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>1</v>
       </c>
@@ -893,21 +874,19 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>1</v>
       </c>
@@ -923,21 +902,19 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -953,109 +930,109 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="17"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>10</v>
+      <c r="D13" s="27" t="s">
+        <v>9</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1069,381 +1046,192 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1">
+      <c r="A16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="19">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="C16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="19">
         <v>2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="19">
         <v>2</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="G16" s="19">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="H16" s="19">
         <v>2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I16" s="20">
         <v>2</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4</v>
-      </c>
-      <c r="I24" s="4">
-        <v>4</v>
-      </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="22">
-        <v>2</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="22">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22">
-        <v>0</v>
-      </c>
-      <c r="G25" s="22">
-        <v>2</v>
-      </c>
-      <c r="H25" s="22">
-        <v>2</v>
-      </c>
-      <c r="I25" s="24">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="D19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="3">
+        <f>SUM(E6:E16)</f>
+        <v>12</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" ref="F19:I19" si="0">SUM(F6:F16)</f>
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="3">
-        <v>15</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>14</v>
-      </c>
-      <c r="H27" s="3">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3">
-        <v>7</v>
-      </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1453,7 +1241,7 @@
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>SUM(K1:K3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D10 D13:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D6:D8">
       <formula1>$K$3:$M$3</formula1>
     </dataValidation>
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="D4:D5">
@@ -1466,64 +1254,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1532,12 +1320,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Sprint 2 Backlog.xlsx
+++ b/Documentation/Sprint 2 Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="11460" windowHeight="7956"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,12 @@
   <definedNames>
     <definedName name="Status">Sheet1!$K$1:$K$3</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -135,8 +140,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,11 +230,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -238,7 +243,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -246,17 +251,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -266,7 +271,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -274,57 +279,57 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -333,18 +338,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -417,6 +422,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,18 +441,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -739,40 +744,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="51.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
-    <col min="5" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="13" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.83203125" style="1"/>
+    <col min="12" max="13" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:13" ht="20">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
       <c r="J1"/>
       <c r="K1" s="8"/>
     </row>
@@ -968,7 +973,7 @@
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3">
@@ -998,7 +1003,7 @@
       <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3">
@@ -1028,23 +1033,23 @@
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13"/>
     </row>
@@ -1058,7 +1063,7 @@
       <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3">
@@ -1088,7 +1093,7 @@
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="3">
@@ -1118,7 +1123,7 @@
       <c r="C16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="19">
@@ -1172,19 +1177,19 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" ref="F19:I19" si="0">SUM(F6:F16)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J19"/>
     </row>
@@ -1249,22 +1254,26 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1316,17 +1325,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Documentation/Sprint 2 Backlog.xlsx
+++ b/Documentation/Sprint 2 Backlog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="Status">Sheet1!$K$1:$K$3</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -360,7 +360,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,9 +423,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
@@ -752,36 +749,36 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
-    <col min="5" max="11" width="8.83203125" style="1"/>
-    <col min="12" max="13" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.77734375" style="1"/>
+    <col min="12" max="13" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="J1"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -794,7 +791,7 @@
       <c r="J2"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -827,7 +824,7 @@
       <c r="L3"/>
       <c r="M3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -839,7 +836,7 @@
       <c r="I4" s="9"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -853,7 +850,7 @@
       <c r="I5" s="16"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -881,7 +878,7 @@
       </c>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -909,7 +906,7 @@
       </c>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -917,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -937,7 +934,7 @@
       </c>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -949,7 +946,7 @@
       <c r="I9" s="4"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
@@ -963,7 +960,7 @@
       <c r="I10" s="17"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -993,7 +990,7 @@
       </c>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1023,7 +1020,7 @@
       </c>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1033,8 +1030,8 @@
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>9</v>
+      <c r="D13" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -1043,17 +1040,17 @@
         <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1063,8 +1060,8 @@
       <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>8</v>
+      <c r="D14" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1073,47 +1070,47 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4</v>
-      </c>
       <c r="H15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
@@ -1123,7 +1120,7 @@
       <c r="C16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="19">
@@ -1143,7 +1140,7 @@
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1155,7 +1152,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1167,48 +1164,48 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E6:E16)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ref="F19:I19" si="0">SUM(F6:F16)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1220,13 +1217,13 @@
       <c r="I25" s="3"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1270,13 +1267,13 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1292,7 +1289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1300,7 +1297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1308,17 +1305,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1339,7 +1336,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
